--- a/pra_501.xlsx
+++ b/pra_501.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>JODELLE FERNANDES ARAÚJO</t>
+  </si>
+  <si>
+    <t>FIM - PR A</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1434,6 +1437,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A21:B21"/>
